--- a/網頁乙級檢定_解題流程(第一題-1120702).xlsx
+++ b/網頁乙級檢定_解題流程(第一題-1120702).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\112-bquiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825920B0-3470-4BE5-B1DB-4CF7E6DB4C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01-環境建置、測試" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="04-後台主頁面切版" sheetId="5" r:id="rId4"/>
     <sheet name="05-測試Class Page類別及方法" sheetId="2" r:id="rId5"/>
     <sheet name="06-建立Class DB 共用函式及類別 " sheetId="12" r:id="rId6"/>
-    <sheet name="07-建立total和bottom類別及呼叫" sheetId="10" r:id="rId7"/>
+    <sheet name="07-建立total和bottom類別及modal目錄" sheetId="10" r:id="rId7"/>
     <sheet name="08-0616" sheetId="8" r:id="rId8"/>
     <sheet name="0619" sheetId="6" r:id="rId9"/>
     <sheet name="0626" sheetId="7" r:id="rId10"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="256">
   <si>
     <t>https://mackliu.github.io/php-book/2021/09/22/skill-check-init-02/</t>
   </si>
@@ -1400,10 +1399,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>前台主頁面切版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>前後台共用的元件先存在webxx根目錄下</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1629,6 +1624,149 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>$do=$_GET['do'] ?? 'main'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$file="./front/".$do."php";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>程式碼片段加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變數，並用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>if(file_exists($file))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>來判斷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是否存在</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>else {include "./front/main.php" }</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (file_exists($file)) {include $file}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1645,37 +1783,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">div class="di" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>整段程式碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>剪下，貼上至一個新建立的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>main.php</t>
     </r>
@@ -1687,15 +1795,114 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>，並存入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>login.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>news.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個檔案的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>marquee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跑馬燈程式碼獨立剪下貼上至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>marquee.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>並存入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>front</t>
     </r>
@@ -1712,19 +1919,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$do=$_GET['do'] ?? 'main'</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$file="./front/".$do."php";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
+    <t>前後主頁面切版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>後台主頁面切版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>front-layout</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-layout</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
@@ -1736,6 +1951,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>index.php</t>
     </r>
@@ -1743,284 +1959,48 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>include</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>程式碼片段加上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>$do</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>$file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變數，並用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>if(file_exists($file))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>來判斷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>$file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是否存在</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>else {include "./front/main.php" }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (file_exists($file)) {include $file}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>將</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>main.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>login.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>news.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>這</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個檔案的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>marquee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>跑馬燈程式碼獨立剪下貼上至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>marquee.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>並存入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>front</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>目錄</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>前後主頁面切版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>後台主頁面切版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>front-layout</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>back-layout</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中，利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的開發者工具來檢視要分離分離出中間需要變動的區塊</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
   </si>
   <si>
     <r>
@@ -2041,7 +2021,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>index.php</t>
+      <t>backend.php</t>
     </r>
     <r>
       <rPr>
@@ -2071,156 +2051,6 @@
         <charset val="136"/>
       </rPr>
       <t>的開發者工具來檢視要分離分離出中間需要變動的區塊</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>backend.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中，利用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>F12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的開發者工具來檢視要分離分離出中間需要變動的區塊</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>將</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">div class="di" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>整段程式碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>剪下，貼上至一個新建立的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>title.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，並存入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>back</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>目錄</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -6640,6 +6470,157 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>開啟</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>phpmyadmin</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，新增一個資料表名稱為</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，分別有</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sh</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>共</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個欄位</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Title-&gt;save($data);
+to("../backend.php?do=title");</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>新增一個資料夾目錄名稱為</t>
     </r>
     <r>
@@ -6649,7 +6630,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>modal</t>
+      <t>\modal</t>
     </r>
     <r>
       <rPr>
@@ -6709,7 +6690,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>modal</t>
+      <t>\modal</t>
     </r>
     <r>
       <rPr>
@@ -6802,166 +6783,38 @@
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>開啟</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>phpmyadmin</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，新增一個資料表名稱為</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，分別有</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>img</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sh</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>共</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個欄位</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新增一個資料夾名稱為</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檔案為獨立處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -6969,69 +6822,6 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，在裡面新增一個檔案名稱為</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>add_title.php</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>因為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>此</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檔案為獨立處理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>api</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft JhengHei"/>
@@ -7056,7 +6846,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -7083,62 +6872,295 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">$data=[];
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新增一個資料夾名稱為</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，在這裡新增一個檔案名稱為</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>add_title.php</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，用來處理新增網站彈跳視窗</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;?php
+                $rows=$Title-&gt;all();
+                foreach($rows as $row){
+            ?&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在back/title.php，實作Title物件並呼叫all()方法，然後用foreach將所有資料取出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">div class="di" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>整段程式碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>剪下，貼上至新增的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>main.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，並存入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>front</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目錄</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">div class="di" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>整段程式碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>剪下，貼上至新增的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>title.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，並存入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目錄</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>回到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modal/title.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MingLiU"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$data=[];
 if(!empty($_FILES['img']['tmp_name'])){
     $data['img']=$_FILES['img']['name'];
     move_uploaded_file($_FILES['img']['tmp_name'],'../upload/'.$_FILES['img']['name']);
 }
 $data['text']=$_POST['text'];
-$data['sh']=0;
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Title-&gt;save($data);
-to("../backend.php?do=title");</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>回到</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>modal/title.php</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="MingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
+$data['sh']=0;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試Class Page類別及方法</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="68">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7596,6 +7618,32 @@
       <name val="MingLiU"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MingLiU"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7611,7 +7659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -7671,12 +7719,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7715,7 +7785,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7730,11 +7799,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7772,6 +7837,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7842,23 +7920,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -8074,25 +8169,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
@@ -8100,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -8108,7 +8203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8116,7 +8211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -8124,7 +8219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -8132,7 +8227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -8140,7 +8235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -8148,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -8156,7 +8251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -8164,7 +8259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -8172,7 +8267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -8180,7 +8275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -8188,7 +8283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -8196,7 +8291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -8204,7 +8299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -8212,7 +8307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
@@ -8220,148 +8315,148 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="B18" s="4"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12.75">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12.75">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="12.75">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="12.75">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="12.75">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="12.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="12.75">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="12.75">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="12.75">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="12.75">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="12.75">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="12.75">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="12.75">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="12.75">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="12.75">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="12.75">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="12.75">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="12.75">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="12.75">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="12.75">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="12.75">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="12.75">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8369,76 +8464,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="91.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="30" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -8449,24 +8544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -8475,7 +8570,7 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -8484,7 +8579,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
@@ -8493,7 +8588,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -8502,7 +8597,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
@@ -8511,7 +8606,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -8520,7 +8615,7 @@
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
         <v>43</v>
       </c>
@@ -8529,7 +8624,7 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
         <v>45</v>
       </c>
@@ -8540,7 +8635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="25.5">
       <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
@@ -8553,7 +8648,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -8564,7 +8659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="27">
       <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
@@ -8575,7 +8670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="11" t="s">
         <v>52</v>
       </c>
@@ -8586,7 +8681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="25.5">
       <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
@@ -8597,7 +8692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="13.5">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
@@ -8607,340 +8702,322 @@
       <c r="C14" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" ht="13.5">
+      <c r="A1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.5">
+      <c r="A2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5">
       <c r="A3" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="13.5">
       <c r="A4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5">
+      <c r="A5" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B6" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5">
+      <c r="A7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A9" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="68"/>
+      <c r="B14" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" ht="13.5">
+      <c r="A1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.5">
+      <c r="A2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5">
+      <c r="A3" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5">
+      <c r="A5" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="B5" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.6" customHeight="1">
+      <c r="A8" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="60" t="s">
+      <c r="B8" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>129</v>
+    </row>
+    <row r="10" spans="1:3" ht="12.6" customHeight="1">
+      <c r="A10" s="95" t="s">
+        <v>126</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
+      <c r="A11" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>166</v>
+      <c r="B14" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="94"/>
       <c r="B15" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8948,259 +9025,244 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>55</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="96" t="s">
+        <v>255</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="8"/>
-      <c r="B2" s="36"/>
-    </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5">
+      <c r="A3" s="76" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="74"/>
+      <c r="B4" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5">
+      <c r="A5" s="75"/>
+      <c r="B5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="74"/>
+      <c r="B8" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="C9" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="A10" s="75"/>
+      <c r="B10" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
+      <c r="A11" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.5">
+      <c r="A12" s="74"/>
+      <c r="B12" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="75"/>
+      <c r="B13" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
+      <c r="A14" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="C16" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="13.5">
+      <c r="A18" s="77"/>
+      <c r="B18" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C18" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="38" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
-      <c r="B15" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="17" t="s">
+    <row r="20" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A20" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="38" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="79"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="35"/>
-    </row>
-    <row r="18" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
-      <c r="B19" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
-      <c r="B21" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="14.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25">
+      <c r="A23" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B23" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
-      <c r="B26" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="C23" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.5">
+      <c r="A24" s="70"/>
+      <c r="B24" s="44" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="47" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A6:A10"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9208,21 +9270,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -9230,82 +9292,82 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="8"/>
-      <c r="B2" s="36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
-        <v>220</v>
+      <c r="B2" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5">
+      <c r="A3" s="73" t="s">
+        <v>217</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
-      <c r="B4" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="37"/>
-    </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3" ht="13.5">
+      <c r="A5" s="82"/>
       <c r="B5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="37"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="82"/>
+      <c r="B6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="82"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="82"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+    <row r="9" spans="1:3">
+      <c r="A9" s="82"/>
       <c r="B9" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="82"/>
       <c r="B10" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="83"/>
       <c r="B11" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
-        <v>232</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="77" t="s">
+        <v>229</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>63</v>
@@ -9314,75 +9376,75 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="84"/>
       <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="84"/>
       <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="84"/>
       <c r="B15" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="56"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="13.5">
       <c r="A25" s="11"/>
       <c r="B25" s="13" t="s">
         <v>73</v>
@@ -9396,7 +9458,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9404,213 +9466,218 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="88.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="49">
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.5">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25.5">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.5">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5">
+      <c r="A7" s="90">
+        <v>6</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="57"/>
+    </row>
+    <row r="8" spans="1:3" ht="27">
+      <c r="A8" s="70"/>
+      <c r="B8" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
-        <v>2</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
-        <v>3</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
-        <v>4</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
-        <v>5</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="51" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="90">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
-        <v>6</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="C9" s="48"/>
+    </row>
+    <row r="10" spans="1:3" ht="25.5">
+      <c r="A10" s="91"/>
+      <c r="B10" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
+      <c r="A11" s="91"/>
+      <c r="B11" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" s="91"/>
+      <c r="B12" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="91"/>
+      <c r="B13" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="51"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="86" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="87" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.5">
+      <c r="A15" s="53">
+        <v>8</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="28.5">
+      <c r="A16" s="90">
+        <v>9</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="102">
+      <c r="A17" s="91"/>
+      <c r="B17" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="86" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="87"/>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="86" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="87"/>
-    </row>
-    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="86" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="87"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-    </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="56">
-        <v>8</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="85" t="s">
+    <row r="18" spans="1:3" ht="14.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="90">
+        <v>10</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="51">
+      <c r="A20" s="70"/>
+      <c r="B20" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="87" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
-      <c r="B19" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="89"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
-        <v>9</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="28"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="53">
+        <v>11</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>221</v>
+      </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
-        <v>10</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" display="https://github.com/mackliu/11201-bquiz01/commit/9fbc1220cfdfb9083fa826897f6b6e74178c1418" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B20" r:id="rId2" display="https://github.com/mackliu/11201-bquiz01/commit/f5b443915a481d5f3ee23ec916f89eabd1bb05d6" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B22" r:id="rId3" display="https://github.com/mackliu/11201-bquiz01/commit/c33cfb520c2aacc2f5004b6e4d92d66ac14f465c" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://github.com/mackliu/11201-bquiz01/commit/041a4f545be1b123a42507f32f6b609767784b5d" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="B2" r:id="rId5" display="https://github.com/mackliu/11201-bquiz01/commit/3c25e07c814c20ed8fc774fc22432c0a701ad0f5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://github.com/mackliu/11201-bquiz01/commit/abf203928615b63368e3cf00a3cefca2c977ae6d" xr:uid="{451442C1-3160-4D3E-A261-A0E4BD1B2319}"/>
+    <hyperlink ref="B15" r:id="rId1" display="https://github.com/mackliu/11201-bquiz01/commit/9fbc1220cfdfb9083fa826897f6b6e74178c1418"/>
+    <hyperlink ref="B19" r:id="rId2" display="https://github.com/mackliu/11201-bquiz01/commit/f5b443915a481d5f3ee23ec916f89eabd1bb05d6"/>
+    <hyperlink ref="B21" r:id="rId3" display="https://github.com/mackliu/11201-bquiz01/commit/c33cfb520c2aacc2f5004b6e4d92d66ac14f465c"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://github.com/mackliu/11201-bquiz01/commit/041a4f545be1b123a42507f32f6b609767784b5d"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://github.com/mackliu/11201-bquiz01/commit/3c25e07c814c20ed8fc774fc22432c0a701ad0f5"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://github.com/mackliu/11201-bquiz01/commit/abf203928615b63368e3cf00a3cefca2c977ae6d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -9618,124 +9685,124 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="11"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="32" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="33" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="33" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="32" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="33" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="33" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
     </row>
@@ -9747,51 +9814,51 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="78.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="30" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="30" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
